--- a/newExcel.xlsx
+++ b/newExcel.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,6 +435,15 @@
       <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -449,6 +458,15 @@
       <c r="D2" t="n">
         <v>3</v>
       </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -463,6 +481,15 @@
       <c r="D3" t="n">
         <v>6</v>
       </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -476,6 +503,84 @@
       </c>
       <c r="D4" t="n">
         <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
